--- a/data/trans_orig/IP12_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12_R2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC3E9F3F-8C58-45D2-A9D5-2E85F33602D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1E1043-A78B-42BC-8B6C-87BA827B5BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{973232DB-E2C4-4DAF-9A36-64D4BFEDF2F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D74D96A7-225A-40EC-8716-3B9F3694C815}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,19 +77,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,47%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>18,96%</t>
+    <t>17,94%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>13,62%</t>
+    <t>13,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>81,53%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,241 +107,244 @@
     <t>96,08%</t>
   </si>
   <si>
-    <t>81,04%</t>
+    <t>82,06%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>86,38%</t>
+    <t>86,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>3,37%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>95,69%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>5,01%</t>
@@ -350,7 +353,7 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,55%</t>
@@ -359,22 +362,19 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,45%</t>
+    <t>93,38%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -383,7 +383,7 @@
     <t>94,45%</t>
   </si>
   <si>
-    <t>93,41%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>95,42%</t>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488D85A5-16C0-4A8B-819F-1EC8BF110718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF70D8FD-B8E5-458E-B95E-24A9AD41AE45}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1408,10 +1408,10 @@
         <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -1420,13 +1420,13 @@
         <v>19790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,13 +1441,13 @@
         <v>161983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -1459,10 +1459,10 @@
         <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -1471,13 +1471,13 @@
         <v>321320</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,13 +1545,13 @@
         <v>12446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -1560,13 +1560,13 @@
         <v>9701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -1575,13 +1575,13 @@
         <v>22147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1596,13 @@
         <v>162570</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>225</v>
@@ -1611,13 +1611,13 @@
         <v>162242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>446</v>
@@ -1626,13 +1626,13 @@
         <v>324811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1700,13 @@
         <v>43722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -1715,13 +1715,13 @@
         <v>32729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -1730,13 +1730,13 @@
         <v>76451</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,10 +1751,10 @@
         <v>681982</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>110</v>
